--- a/ZBabcock_DataTypeSpreadsheet.xlsx
+++ b/ZBabcock_DataTypeSpreadsheet.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="184">
   <si>
     <t>Bigint</t>
   </si>
@@ -508,13 +508,157 @@
   </si>
   <si>
     <t>There isn't one. The closest is nchar, but nchar can be many characters long, while C# char seems to be limited to being just one character.</t>
+  </si>
+  <si>
+    <t>Floating numbers.</t>
+  </si>
+  <si>
+    <t>Boolean values ("true" or "false").</t>
+  </si>
+  <si>
+    <t>It can only be "true" or "false".</t>
+  </si>
+  <si>
+    <t>1 byte if it's a field, 4 bytes if it's used on a 32-bit platform, and 8 bytes on a 64-bit platform.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Floating numbers from </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>±5.0 x 10</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>-324</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> to ±1.7 x 10</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>308</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Floating numbers from -3.4 x 10</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>38</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> to 3.4 x 10</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>38</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>16 bytes.</t>
+  </si>
+  <si>
+    <t>object</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>delegate</t>
+  </si>
+  <si>
+    <t>Dependant on what kind of data type makes up the set.</t>
+  </si>
+  <si>
+    <t>A set of named constants that tend to succeed the previous.</t>
+  </si>
+  <si>
+    <t>In the underlying set, each entry is assigned a data type (the default being int). The only type that an entry can't be is the char data type. It's also apparently a bad idea to set one of the constants to equal 0.</t>
+  </si>
+  <si>
+    <t>Small groups of related variables.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">class </t>
+  </si>
+  <si>
+    <t xml:space="preserve">interface </t>
+  </si>
+  <si>
+    <t>This data type is similar to a class, but can't do as much. It's better for more simple examples (like mapping the coordinates for each corner of a rectangle), but, again, can't do as much as a class.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">struct </t>
+  </si>
+  <si>
+    <t xml:space="preserve">enum </t>
+  </si>
+  <si>
+    <t>A sequence of zero or more Unicode characters.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -533,6 +677,27 @@
     <font>
       <b/>
       <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -559,7 +724,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -584,15 +749,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -895,10 +1051,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H40"/>
+  <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1516,32 +1672,111 @@
         <v>163</v>
       </c>
     </row>
-    <row r="35" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" s="6" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" s="6" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
         <v>153</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="37" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D37" s="6" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="40" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="6"/>
-      <c r="B40" s="9"/>
-      <c r="C40" s="10"/>
-      <c r="D40" s="9"/>
+      <c r="B38" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" s="6" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A39" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" s="6" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A40" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="4" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="4" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="4" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="4" t="s">
+        <v>173</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
